--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject42.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject42.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.63772198352454224</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -182,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0</v>
+        <v>0.88264704014575801</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.68126015107265636</v>
       </c>
     </row>
     <row r="2">
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.66436792247264398</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.66508127129037109</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>0</v>
+        <v>0.50610766612029034</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -529,30 +529,30 @@
         <v>0</v>
       </c>
       <c r="BN2" s="0">
-        <v>0</v>
+        <v>0.68129698890707324</v>
       </c>
       <c r="BO2" s="0">
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.64417616944958456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.76363224855622791</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.89766866833559278</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.75401714770461581</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>0</v>
+        <v>0.9177251537139135</v>
       </c>
       <c r="AX3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.83742916617441088</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.88449701315432716</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.88758825178109935</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.78754363863456711</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.87324658943577749</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.66774229306390265</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.62003191644102795</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="0">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="0">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.59728922721064581</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.92446808820452941</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>0</v>
+        <v>0.6438957529041156</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.74778553698514805</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.735644638449515</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.78226990865367618</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.55661089432986355</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0</v>
+        <v>0.97148899112603049</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="0">
-        <v>0</v>
+        <v>0.71741473072641782</v>
       </c>
       <c r="BD7" s="0">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.79211837276729069</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.56930770968048161</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.73363213901936697</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.8062211302037352</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.84979502333526302</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.86026516273515785</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="0">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.94512414790492305</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.76370099300089345</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.6848795854695291</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>0.72771512266651206</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AT10" s="0">
-        <v>0</v>
+        <v>0.75338274095552027</v>
       </c>
       <c r="AU10" s="0">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="BH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.52783858001014528</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.72473861612010415</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0</v>
+        <v>0.96930150485740518</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>0</v>
+        <v>0.62346525949232201</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>0.78234391340596943</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.75331026756985731</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.96479491784787041</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.56654542875900193</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.74113044935761418</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.97729665082634021</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.68564959549325777</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0</v>
+        <v>0.72916232025255179</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.58595569507030087</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.801809436362521</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.7062530855808633</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3048,22 +3048,22 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.94175264284272875</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.6289536353215861</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.73027181666322827</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.91570224681324142</v>
       </c>
       <c r="R15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>0</v>
+        <v>0.651856487028599</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BH15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3257,22 +3257,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.92580098658602283</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.58202431323336823</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.6958278102736235</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.90379732261465728</v>
       </c>
       <c r="S16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AM16" s="0">
-        <v>0</v>
+        <v>0.92456767637680481</v>
       </c>
       <c r="AN16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>0</v>
+        <v>0.687644218835189</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.85533472481069683</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.64204343490062732</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.586886553726224</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0</v>
+        <v>0.79682053387465823</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
@@ -3672,28 +3672,28 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.61780236680370793</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.86378532109860884</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.89177011566850184</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>0</v>
+        <v>0.95914530182824664</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="0">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3881,19 +3881,19 @@
         <v>0</v>
       </c>
       <c r="P19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.77776111483295762</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.66262959628614637</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4093,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.91414688419706225</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.94117205742077248</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>0</v>
+        <v>0.51308806493664882</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>0.57522061036147321</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.76172012916669785</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.51222839360557182</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>0</v>
+        <v>0.78456988889583756</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4514,16 +4514,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.64920798125052781</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.88102912955174117</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.73742064657452455</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0</v>
+        <v>0.54911624133912307</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.67147728591993294</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.73296085485563145</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.55718142324095177</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4929,25 +4929,25 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.77053380608181521</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.67337249911647645</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.92876494400686349</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.70494758600184004</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>0</v>
+        <v>0.53301407781434018</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.63446035126518763</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.93022719242919361</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.83010571852257087</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.98571448752947877</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.8746396557331102</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.65114318674068039</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.52341069882531466</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.51103142765851606</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="0">
-        <v>0</v>
+        <v>0.56036572972678189</v>
       </c>
       <c r="BN26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.64256491991995301</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.60952270628391525</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.58185811052203074</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="0">
-        <v>0</v>
+        <v>0.99632670357067687</v>
       </c>
       <c r="AJ27" s="0">
         <v>0</v>
@@ -5759,25 +5759,25 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>0</v>
+        <v>0.50936277722130885</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.74852867154837321</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.5011775684520674</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.50139399998051259</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="0">
-        <v>0</v>
+        <v>0.89960959286212239</v>
       </c>
       <c r="AT28" s="0">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.82199447525436353</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.84909768246319195</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.91769353232212247</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0</v>
+        <v>0.70944173896439211</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0</v>
+        <v>0.72556297774852374</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.74256692413695946</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.51908283992185877</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.87364039935606552</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.59201566043758391</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.84577422780550959</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.75809484356522705</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.50418836208265394</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.90636583883146615</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.55989668763143419</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.5471134896234382</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>0</v>
+        <v>0.9868701619972815</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6810,25 +6810,25 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.88361427958661065</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.64574147416869399</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.55731528588556112</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
       </c>
       <c r="AK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>0</v>
+        <v>0.8770418237725186</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.70579123594019355</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7040,19 +7040,19 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="0">
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>0</v>
+        <v>0.60401665757408041</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>0</v>
+        <v>0.66246912929145851</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>0</v>
+        <v>0.76768684773933948</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.99484501670287317</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.99188978246836312</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>0</v>
+        <v>0.54362407101995003</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="0">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
@@ -7437,16 +7437,16 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.71236058135964031</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.82473648476256722</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.51978902717884712</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0</v>
+        <v>0.91376194071068717</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0</v>
+        <v>0.60946971745307188</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7640,22 +7640,22 @@
         <v>0</v>
       </c>
       <c r="AG37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="0">
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.80164195442970432</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.73401290829777732</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="BM37" s="0">
-        <v>0</v>
+        <v>0.96339768110314239</v>
       </c>
       <c r="BN37" s="0">
         <v>0</v>
@@ -7858,16 +7858,16 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.83335254775500056</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.54974917291538672</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.61871614490214033</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>0</v>
+        <v>0.60598723805535437</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.73011201709607554</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.91862677410855365</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="AY39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="0">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>0</v>
+        <v>0.79041807832757538</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.53965726079250098</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0</v>
+        <v>0.71535187362986874</v>
       </c>
       <c r="AY40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>0</v>
+        <v>0.99983237251179946</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.98391317733832395</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.54330105088730818</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0">
-        <v>0</v>
+        <v>0.53394532504140146</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.71386988651252548</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.58942741221892891</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.55785539447753218</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH42" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>0</v>
+        <v>0.75329324056739411</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.81355628610090625</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.72381006444770435</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>0</v>
+        <v>0.85332174567797514</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>0</v>
+        <v>0.85071600055615315</v>
       </c>
       <c r="AD44" s="0">
         <v>0</v>
@@ -9109,16 +9109,16 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.94567799777902728</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.78868944236625915</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="BN44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9216,13 +9216,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>0.56032277806213493</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="0">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0</v>
+        <v>0.96200493906435813</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.86705162951532677</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.72963182863534182</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.96966289071657141</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="0">
-        <v>0</v>
+        <v>0.59941419290051012</v>
       </c>
       <c r="K46" s="0">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>0</v>
+        <v>0.73181941465153377</v>
       </c>
       <c r="AK46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.62174000115573547</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.87279782971625874</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9578,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="BI46" s="0">
-        <v>0</v>
+        <v>0.88155511486712401</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0</v>
+        <v>0.60083920025007154</v>
       </c>
       <c r="BK46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>0.57301044225235653</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.74264652617973015</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.89040314360114359</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.73301665474025413</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="0">
-        <v>0</v>
+        <v>0.57816661393825219</v>
       </c>
       <c r="BB47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.5147875868046613</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.89348731287718475</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.62804149464334458</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.8166031640016147</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO48" s="0">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>0.74444108929353703</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.91384307524094366</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.51382234569983787</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.62784081974336248</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>0</v>
+        <v>0.99796374359961937</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.62277510155004578</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.98193773131751039</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.73328911020265419</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>0</v>
+        <v>0.88546282285697486</v>
       </c>
       <c r="BL50" s="0">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="0">
-        <v>0</v>
+        <v>0.80089087350759125</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0</v>
+        <v>0.98771998903647762</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10542,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="AM51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.55316425178168682</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.63365488912962831</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.81067206174475204</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0</v>
+        <v>0.5359913752593024</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.93789844195905592</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.66354869010838602</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="0">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>0</v>
+        <v>0.63396842437074041</v>
       </c>
       <c r="AV53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.99566289293985266</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.73927658269209706</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="0">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.84655723289389839</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.81707105368186617</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.62523779880553687</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.64520190975840563</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0">
-        <v>0</v>
+        <v>0.94598292644579329</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.58682313103975114</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.73113104460759704</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.88698700658657215</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.90236370739106486</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.90903688297191609</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.94911474944831875</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.74440771515520376</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.72625637560038359</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>0</v>
+        <v>0.82686745320877253</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.80801310217733635</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.55550215966656968</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.78857541186322078</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.84287713056718627</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.9475062345021279</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.84969437385096791</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.78923894676607631</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.97196497081764455</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>0</v>
+        <v>0.81138439093242054</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.8739071920124033</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.5285167289449757</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.60393082735423875</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.91175936157987736</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="0">
         <v>0</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
@@ -12453,25 +12453,25 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.99268754764503442</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.92105688329855129</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.61145432910558384</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.72736287985882564</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>0</v>
+        <v>0.81087879441429433</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.53203023304802877</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.51614251440586256</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.61736490732406846</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0</v>
+        <v>0.65638650849846059</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.90808578142998508</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.8956381669509641</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.50760037456002838</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.57848577059678119</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>0</v>
+        <v>0.74158621941610248</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.67370187292466033</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.5017581481628044</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.64798238570896083</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>0</v>
+        <v>0.94139951755532914</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13283,25 +13283,25 @@
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.99534393427298073</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.73549426341082214</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.71837160985151394</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>0</v>
+        <v>0.52393361185605181</v>
       </c>
       <c r="AA65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>0</v>
+        <v>0.60446029540632862</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.64455832809825719</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.69330808177575964</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>0</v>
+        <v>0.60988442495222428</v>
       </c>
       <c r="C66" s="0">
         <v>0</v>
@@ -13644,10 +13644,10 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>0</v>
+        <v>0.94421898466505838</v>
       </c>
       <c r="AR66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.70183188027463628</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.65126604095195173</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13754,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>0</v>
+        <v>0.50384049683342735</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.50126660838028525</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.92118949401695238</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.78641254315592191</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.86307471023009574</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.89673858987431987</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject42.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject42.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.63772198352454224</v>
+        <v>0.76363224855622791</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0.88264704014575801</v>
+        <v>0.90236370739106486</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.68126015107265636</v>
+        <v>0.78641254315592191</v>
       </c>
     </row>
     <row r="2">
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.66436792247264398</v>
+        <v>0.89766866833559278</v>
       </c>
       <c r="D2" s="0">
-        <v>0.66508127129037109</v>
+        <v>0.88449701315432716</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.50610766612029034</v>
+        <v>0.53394532504140146</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.64417616944958456</v>
+        <v>0.86307471023009574</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0.75401714770461581</v>
+        <v>0.78754363863456711</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.78754363863456711</v>
       </c>
       <c r="D5" s="0">
-        <v>0.87324658943577749</v>
+        <v>0.88758825178109935</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.66774229306390265</v>
       </c>
       <c r="G5" s="0">
-        <v>0.62003191644102795</v>
+        <v>0.735644638449515</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.59728922721064581</v>
+        <v>0.66774229306390265</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>0.6438957529041156</v>
+        <v>0.78234391340596943</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0.735644638449515</v>
       </c>
       <c r="F7" s="0">
-        <v>0.78226990865367618</v>
+        <v>0.92446808820452941</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.55661089432986355</v>
+        <v>0.79211837276729069</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="0">
-        <v>0.71741473072641782</v>
+        <v>0.94598292644579329</v>
       </c>
       <c r="BD7" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.56930770968048161</v>
+        <v>0.8062211302037352</v>
       </c>
       <c r="J8" s="0">
-        <v>0.73363213901936697</v>
+        <v>0.94512414790492305</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0.94512414790492305</v>
       </c>
       <c r="I10" s="0">
-        <v>0.76370099300089345</v>
+        <v>0.84979502333526302</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.6848795854695291</v>
+        <v>0.75331026756985731</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.52783858001014528</v>
+        <v>0.86026516273515785</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.72473861612010415</v>
+        <v>0.74113044935761418</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.96479491784787041</v>
+        <v>0.97729665082634021</v>
       </c>
       <c r="N12" s="0">
-        <v>0.56654542875900193</v>
+        <v>0.58595569507030087</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.68564959549325777</v>
+        <v>0.94175264284272875</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0.801809436362521</v>
       </c>
       <c r="P14" s="0">
-        <v>0.7062530855808633</v>
+        <v>0.92580098658602283</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0.94175264284272875</v>
       </c>
       <c r="N15" s="0">
-        <v>0.6289536353215861</v>
+        <v>0.801809436362521</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AY15" s="0">
-        <v>0.651856487028599</v>
+        <v>0.80089087350759125</v>
       </c>
       <c r="AZ15" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0.92580098658602283</v>
       </c>
       <c r="O16" s="0">
-        <v>0.58202431323336823</v>
+        <v>0.73027181666322827</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>0.687644218835189</v>
+        <v>0.81138439093242054</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.85533472481069683</v>
+        <v>0.91570224681324142</v>
       </c>
       <c r="P17" s="0">
-        <v>0.64204343490062732</v>
+        <v>0.6958278102736235</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.586886553726224</v>
+        <v>0.86378532109860884</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.61780236680370793</v>
+        <v>0.90379732261465728</v>
       </c>
       <c r="Q18" s="0">
         <v>0.86378532109860884</v>
@@ -3887,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.77776111483295762</v>
+        <v>0.89177011566850184</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.66262959628614637</v>
+        <v>0.91414688419706225</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>0.51308806493664882</v>
+        <v>0.79041807832757538</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0.57522061036147321</v>
+        <v>0.72771512266651206</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.76172012916669785</v>
+        <v>0.94117205742077248</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.51222839360557182</v>
+        <v>0.64920798125052781</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>0.78456988889583756</v>
+        <v>0.95914530182824664</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0.88102912955174117</v>
       </c>
       <c r="X22" s="0">
-        <v>0.73742064657452455</v>
+        <v>0.77053380608181521</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0.54911624133912307</v>
+        <v>0.72916232025255179</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.67147728591993294</v>
+        <v>0.88102912955174117</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0.73296085485563145</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.55718142324095177</v>
+        <v>0.63446035126518763</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>0.77053380608181521</v>
       </c>
       <c r="W24" s="0">
-        <v>0.67337249911647645</v>
+        <v>0.73296085485563145</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.92876494400686349</v>
+        <v>0.93022719242919361</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.70494758600184004</v>
+        <v>0.8746396557331102</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0.8746396557331102</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.65114318674068039</v>
+        <v>0.83010571852257087</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.52341069882531466</v>
+        <v>0.60952270628391525</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.51103142765851606</v>
+        <v>0.74852867154837321</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.64256491991995301</v>
+        <v>0.98571448752947877</v>
       </c>
       <c r="Z27" s="0">
         <v>0.60952270628391525</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>0.50936277722130885</v>
+        <v>0.53301407781434018</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
@@ -5768,13 +5768,13 @@
         <v>0.74852867154837321</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.5011775684520674</v>
+        <v>0.58185811052203074</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.50139399998051259</v>
+        <v>0.82199447525436353</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="0">
-        <v>0.89960959286212239</v>
+        <v>0.96200493906435813</v>
       </c>
       <c r="AT28" s="0">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>0.70944173896439211</v>
+        <v>0.85071600055615315</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.74256692413695946</v>
+        <v>0.84909768246319195</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.51908283992185877</v>
+        <v>0.84577422780550959</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.87364039935606552</v>
+        <v>0.90636583883146615</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.59201566043758391</v>
+        <v>0.91769353232212247</v>
       </c>
       <c r="AD31" s="0">
         <v>0.84577422780550959</v>
@@ -6404,7 +6404,7 @@
         <v>0.75809484356522705</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.50418836208265394</v>
+        <v>0.88361427958661065</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6604,13 +6604,13 @@
         <v>0.90636583883146615</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.55989668763143419</v>
+        <v>0.75809484356522705</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.5471134896234382</v>
+        <v>0.64574147416869399</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.55731528588556112</v>
+        <v>0.99484501670287317</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>0.8770418237725186</v>
+        <v>0.98771998903647762</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.70579123594019355</v>
+        <v>0.71236058135964031</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7046,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>0.60401665757408041</v>
+        <v>0.99983237251179946</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>0.66246912929145851</v>
+        <v>0.75329324056739411</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>0.76768684773933948</v>
+        <v>0.99632670357067687</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>0.54362407101995003</v>
+        <v>0.82686745320877253</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0.71236058135964031</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.82473648476256722</v>
+        <v>0.99188978246836312</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.51978902717884712</v>
+        <v>0.80164195442970432</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0.60946971745307188</v>
+        <v>0.97148899112603049</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.73401290829777732</v>
+        <v>0.83335254775500056</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.54974917291538672</v>
+        <v>0.73011201709607554</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>0.60598723805535437</v>
+        <v>0.92456767637680481</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.91862677410855365</v>
+        <v>0.98391317733832395</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.53965726079250098</v>
+        <v>0.58942741221892891</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0.71535187362986874</v>
+        <v>0.99796374359961937</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.54330105088730818</v>
+        <v>0.55785539447753218</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0.71386988651252548</v>
+        <v>0.74778553698514805</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.81355628610090625</v>
+        <v>0.94567799777902728</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.72381006444770435</v>
+        <v>0.86705162951532677</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>0.85332174567797514</v>
+        <v>0.94421898466505838</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0.56032277806213493</v>
+        <v>0.96930150485740518</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0.86705162951532677</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.72963182863534182</v>
+        <v>0.78868944236625915</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="0">
-        <v>0.59941419290051012</v>
+        <v>0.75338274095552027</v>
       </c>
       <c r="K46" s="0">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="0">
-        <v>0.73181941465153377</v>
+        <v>0.91376194071068717</v>
       </c>
       <c r="AK46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.62174000115573547</v>
+        <v>0.89040314360114359</v>
       </c>
       <c r="AV46" s="0">
         <v>0.87279782971625874</v>
@@ -9581,7 +9581,7 @@
         <v>0.88155511486712401</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0.60083920025007154</v>
+        <v>0.65638650849846059</v>
       </c>
       <c r="BK46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.57301044225235653</v>
+        <v>0.79682053387465823</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.74264652617973015</v>
+        <v>0.96966289071657141</v>
       </c>
       <c r="AT47" s="0">
         <v>0.89040314360114359</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.73301665474025413</v>
+        <v>0.89348731287718475</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="0">
-        <v>0.57816661393825219</v>
+        <v>0.63396842437074041</v>
       </c>
       <c r="BB47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.5147875868046613</v>
+        <v>0.87279782971625874</v>
       </c>
       <c r="AU48" s="0">
         <v>0.89348731287718475</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.62804149464334458</v>
+        <v>0.91384307524094366</v>
       </c>
       <c r="AX48" s="0">
         <v>0.8166031640016147</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>0.74444108929353703</v>
+        <v>0.9177251537139135</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.51382234569983787</v>
+        <v>0.98193773131751039</v>
       </c>
       <c r="AY49" s="0">
         <v>0.62784081974336248</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.62277510155004578</v>
+        <v>0.8166031640016147</v>
       </c>
       <c r="AW50" s="0">
         <v>0.98193773131751039</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.55316425178168682</v>
+        <v>0.62784081974336248</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.63365488912962831</v>
+        <v>0.73328911020265419</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.81067206174475204</v>
+        <v>0.99566289293985266</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0.5359913752593024</v>
+        <v>0.72556297774852374</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0.66354869010838602</v>
+        <v>0.83742916617441088</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.73927658269209706</v>
+        <v>0.81707105368186617</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.84655723289389839</v>
+        <v>0.93789844195905592</v>
       </c>
       <c r="BA54" s="0">
         <v>0.81707105368186617</v>
@@ -11211,7 +11211,7 @@
         <v>0.62523779880553687</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.64520190975840563</v>
+        <v>0.90903688297191609</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.58682313103975114</v>
+        <v>0.62523779880553687</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.73113104460759704</v>
+        <v>0.94911474944831875</v>
       </c>
       <c r="BE55" s="0">
         <v>0.88698700658657215</v>
@@ -11629,7 +11629,7 @@
         <v>0.74440771515520376</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.72625637560038359</v>
+        <v>0.9475062345021279</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.80801310217733635</v>
+        <v>0.88698700658657215</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.55550215966656968</v>
+        <v>0.74440771515520376</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.78857541186322078</v>
+        <v>0.84969437385096791</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.84287713056718627</v>
+        <v>0.8739071920124033</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0.78923894676607631</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.97196497081764455</v>
+        <v>0.99268754764503442</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12247,13 +12247,13 @@
         <v>0.8739071920124033</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.5285167289449757</v>
+        <v>0.78923894676607631</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.60393082735423875</v>
+        <v>0.92105688329855129</v>
       </c>
       <c r="BI59" s="0">
         <v>0.91175936157987736</v>
@@ -12465,7 +12465,7 @@
         <v>0.61145432910558384</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.72736287985882564</v>
+        <v>0.90808578142998508</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AT61" s="0">
-        <v>0.81087879441429433</v>
+        <v>0.88155511486712401</v>
       </c>
       <c r="AU61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.53203023304802877</v>
+        <v>0.91175936157987736</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.51614251440586256</v>
+        <v>0.61145432910558384</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.61736490732406846</v>
+        <v>0.8956381669509641</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.50760037456002838</v>
+        <v>0.67370187292466033</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.57848577059678119</v>
+        <v>0.61871614490214033</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>0.74158621941610248</v>
+        <v>0.88546282285697486</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.5017581481628044</v>
+        <v>0.99534393427298073</v>
       </c>
       <c r="BM63" s="0">
         <v>0.64798238570896083</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>0.94139951755532914</v>
+        <v>0.9868701619972815</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>0.52393361185605181</v>
+        <v>0.56036572972678189</v>
       </c>
       <c r="AA65" s="0">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="0">
-        <v>0.60446029540632862</v>
+        <v>0.96339768110314239</v>
       </c>
       <c r="AL65" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.64455832809825719</v>
+        <v>0.64798238570896083</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.69330808177575964</v>
+        <v>0.73549426341082214</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>0.60988442495222428</v>
+        <v>0.68129698890707324</v>
       </c>
       <c r="C66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.70183188027463628</v>
+        <v>0.71837160985151394</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13754,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>0.50384049683342735</v>
+        <v>0.62346525949232201</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.50126660838028525</v>
+        <v>0.65126604095195173</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.89673858987431987</v>
+        <v>0.92118949401695238</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
